--- a/Documenti/TimeSheet.xlsx
+++ b/Documenti/TimeSheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="45">
   <si>
     <t>DATA</t>
   </si>
@@ -74,18 +74,12 @@
     <t>Transition</t>
   </si>
   <si>
-    <t>Implemetazione</t>
-  </si>
-  <si>
     <t>Project Management</t>
   </si>
   <si>
     <t>Test</t>
   </si>
   <si>
-    <t>Implementazione</t>
-  </si>
-  <si>
     <t>ITERAZIONE</t>
   </si>
   <si>
@@ -95,9 +89,6 @@
     <t>Elicitazione casi d'uso</t>
   </si>
   <si>
-    <t>Analisi e design</t>
-  </si>
-  <si>
     <t>Class Diagrams</t>
   </si>
   <si>
@@ -162,6 +153,12 @@
   </si>
   <si>
     <t>Model in Java, JSP, JS: Crea Amministratore</t>
+  </si>
+  <si>
+    <t>Implemetation</t>
+  </si>
+  <si>
+    <t>Analysis and design</t>
   </si>
 </sst>
 </file>
@@ -748,7 +745,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="G8" sqref="G8:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -787,7 +784,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>6</v>
@@ -848,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -877,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -906,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -935,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -958,13 +955,13 @@
         <v>13</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="H7" s="1">
         <v>1</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -987,13 +984,13 @@
         <v>13</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="H8" s="1">
         <v>1</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1016,13 +1013,13 @@
         <v>13</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1045,13 +1042,13 @@
         <v>13</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="H10" s="1">
         <v>1</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -1074,13 +1071,13 @@
         <v>14</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="H11" s="1">
         <v>2</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -1103,13 +1100,13 @@
         <v>14</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="H12" s="1">
         <v>2</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -1132,13 +1129,13 @@
         <v>14</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="H13" s="1">
         <v>2</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -1161,13 +1158,13 @@
         <v>14</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="H14" s="1">
         <v>2</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -1190,13 +1187,13 @@
         <v>14</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="H15" s="1">
         <v>2</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -1219,13 +1216,13 @@
         <v>14</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="H16" s="1">
         <v>2</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -1248,13 +1245,13 @@
         <v>14</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="H17" s="1">
         <v>2</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -1277,13 +1274,13 @@
         <v>14</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="H18" s="1">
         <v>2</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -1306,13 +1303,13 @@
         <v>14</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="H19" s="1">
         <v>2</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -1335,13 +1332,13 @@
         <v>14</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="H20" s="1">
         <v>2</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -1364,13 +1361,13 @@
         <v>14</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="H21" s="1">
         <v>2</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -1393,13 +1390,13 @@
         <v>14</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="H22" s="1">
         <v>2</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -1422,13 +1419,13 @@
         <v>14</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H23" s="1">
         <v>3</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -1451,13 +1448,13 @@
         <v>14</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H24" s="1">
         <v>3</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -1480,13 +1477,13 @@
         <v>14</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H25" s="1">
         <v>3</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -1509,13 +1506,13 @@
         <v>14</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="H26" s="1">
         <v>3</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -1538,13 +1535,13 @@
         <v>14</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H27" s="1">
         <v>3</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -1567,13 +1564,13 @@
         <v>14</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H28" s="1">
         <v>3</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -1596,13 +1593,13 @@
         <v>15</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H29" s="1">
         <v>4</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -1631,7 +1628,7 @@
         <v>4</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
